--- a/biology/Zoologie/Cophyla_milloti/Cophyla_milloti.xlsx
+++ b/biology/Zoologie/Cophyla_milloti/Cophyla_milloti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cophyla milloti est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cophyla milloti est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Ouest de Madagascar. Elle se rencontre entre le massif de Tsaratanana et le massif du Manongarivo et sur l'île de Nosy Be du niveau de la mer jusqu'à 600 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Ouest de Madagascar. Elle se rencontre entre le massif de Tsaratanana et le massif du Manongarivo et sur l'île de Nosy Be du niveau de la mer jusqu'à 600 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cophyla milloti mesure de 25 à 30 mm. Son dos est brun chocolat avec plusieurs marbrures claires et foncées. Son ventre est blanchâtre ; sa gorge, brunâtre. Ses membres et ses pattes présentent des zones rougeâtres. La peau de son dos est lisse. Les mâles ont un seul sac vocal[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cophyla milloti mesure de 25 à 30 mm. Son dos est brun chocolat avec plusieurs marbrures claires et foncées. Son ventre est blanchâtre ; sa gorge, brunâtre. Ses membres et ses pattes présentent des zones rougeâtres. La peau de son dos est lisse. Les mâles ont un seul sac vocal.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jacques Millot[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jacques Millot.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Guibé, 1950 : Description d'un Batracien nouveau pour la faune malgache, Platypelis milloti n. sp. (Microhylidae). Bulletin du Muséum national d'histoire naturelle, sér. 2, vol. 22, p. 214.</t>
         </is>
